--- a/data/procesados/procesadosCanal/teddy.xlsx
+++ b/data/procesados/procesadosCanal/teddy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="586">
   <si>
     <t>Identificador de URL</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Descripción para SEO</t>
   </si>
   <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -70,7 +76,7 @@
     <t>cepillo-dental-infantil-porta1</t>
   </si>
   <si>
-    <t>chup-redondo-tetina-latex1</t>
+    <t>teddy-chupete-redondo-tetina-latex</t>
   </si>
   <si>
     <t>chup-anatomico-latex</t>
@@ -94,7 +100,7 @@
     <t>esponja-bebe</t>
   </si>
   <si>
-    <t>sonajero-platitos</t>
+    <t>teddy-sonajero-platitos</t>
   </si>
   <si>
     <t>cepillo-limpiamamadera</t>
@@ -109,13 +115,13 @@
     <t>mordillo-refrigerante-hipo-equilibrista</t>
   </si>
   <si>
-    <t>sonajero-bolita</t>
+    <t>teddy-sonajero-bolita</t>
   </si>
   <si>
     <t>sonajero-medalla-fantasia</t>
   </si>
   <si>
-    <t>sonajero-bolita-fluo</t>
+    <t>teddy-sonajero-bolita-fluo</t>
   </si>
   <si>
     <t>mordillo-refrigerante-medalla-fantasia</t>
@@ -355,7 +361,7 @@
     <t>Cepillo dental infantil + porta</t>
   </si>
   <si>
-    <t>CHUP. REDONDO TETINA LÁTEX</t>
+    <t>Teddy - Chupete redondo tetina latex</t>
   </si>
   <si>
     <t>CHUP. ANATOMICO LÁTEX</t>
@@ -379,7 +385,7 @@
     <t>Esponja Bebe</t>
   </si>
   <si>
-    <t>Sonajero platitos</t>
+    <t>Teddy - Sonajero platitos</t>
   </si>
   <si>
     <t>Cepillo limpiamamadera</t>
@@ -394,13 +400,13 @@
     <t>Mordillo refrigerante hipo equilibrista</t>
   </si>
   <si>
-    <t>Sonajero Bolita</t>
+    <t>Teddy - Sonajero Bolita</t>
   </si>
   <si>
     <t>Sonajero medalla fantasia</t>
   </si>
   <si>
-    <t>Sonajero bolita fluo</t>
+    <t>Teddy - Sonajero bolita - Fluo</t>
   </si>
   <si>
     <t>Mordillo refrigerante medalla fantasia</t>
@@ -907,223 +913,235 @@
     <t>Teddy</t>
   </si>
   <si>
-    <t>1,131.00</t>
-  </si>
-  <si>
-    <t>1,173.00</t>
-  </si>
-  <si>
-    <t>1,548.00</t>
+    <t>1,331.00</t>
+  </si>
+  <si>
+    <t>1,391.00</t>
+  </si>
+  <si>
+    <t>1,839.00</t>
   </si>
   <si>
     <t>14,157.00</t>
   </si>
   <si>
-    <t>1,070.00</t>
+    <t>1,258.00</t>
+  </si>
+  <si>
+    <t>1,306.00</t>
+  </si>
+  <si>
+    <t>689.00</t>
+  </si>
+  <si>
+    <t>502.00</t>
+  </si>
+  <si>
+    <t>998.00</t>
+  </si>
+  <si>
+    <t>2,722.00</t>
+  </si>
+  <si>
+    <t>2,238.00</t>
+  </si>
+  <si>
+    <t>2,032.00</t>
+  </si>
+  <si>
+    <t>447.00</t>
+  </si>
+  <si>
+    <t>647.00</t>
+  </si>
+  <si>
+    <t>919.00</t>
+  </si>
+  <si>
+    <t>1,208.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>816.00</t>
+  </si>
+  <si>
+    <t>586.00</t>
+  </si>
+  <si>
+    <t>1,191.00</t>
+  </si>
+  <si>
+    <t>1,706.00</t>
+  </si>
+  <si>
+    <t>895.00</t>
+  </si>
+  <si>
+    <t>1,246.00</t>
+  </si>
+  <si>
+    <t>1,185.00</t>
+  </si>
+  <si>
+    <t>1,210.00</t>
+  </si>
+  <si>
+    <t>889.00</t>
+  </si>
+  <si>
+    <t>865.00</t>
+  </si>
+  <si>
+    <t>1,476.00</t>
+  </si>
+  <si>
+    <t>955.00</t>
+  </si>
+  <si>
+    <t>1,355.00</t>
+  </si>
+  <si>
+    <t>1,010.00</t>
+  </si>
+  <si>
+    <t>871.00</t>
+  </si>
+  <si>
+    <t>1,046.00</t>
+  </si>
+  <si>
+    <t>756.00</t>
+  </si>
+  <si>
+    <t>883.00</t>
+  </si>
+  <si>
+    <t>1,137.00</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>1,899.00</t>
+  </si>
+  <si>
+    <t>1,149.00</t>
+  </si>
+  <si>
+    <t>3,206.00</t>
+  </si>
+  <si>
+    <t>1,694.00</t>
+  </si>
+  <si>
+    <t>762.00</t>
+  </si>
+  <si>
+    <t>877.00</t>
+  </si>
+  <si>
+    <t>949.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>1,264.00</t>
+  </si>
+  <si>
+    <t>1,089.00</t>
+  </si>
+  <si>
+    <t>6,485.00</t>
+  </si>
+  <si>
+    <t>8,107.00</t>
+  </si>
+  <si>
+    <t>1,329.00</t>
+  </si>
+  <si>
+    <t>1,222.00</t>
+  </si>
+  <si>
+    <t>1,282.00</t>
+  </si>
+  <si>
+    <t>1,270.00</t>
+  </si>
+  <si>
+    <t>798.00</t>
+  </si>
+  <si>
+    <t>792.00</t>
+  </si>
+  <si>
+    <t>3,496.00</t>
+  </si>
+  <si>
+    <t>913.00</t>
+  </si>
+  <si>
+    <t>2,226.00</t>
+  </si>
+  <si>
+    <t>2,528.00</t>
+  </si>
+  <si>
+    <t>1,064.00</t>
+  </si>
+  <si>
+    <t>623.00</t>
+  </si>
+  <si>
+    <t>574.00</t>
+  </si>
+  <si>
+    <t>1,512.00</t>
+  </si>
+  <si>
+    <t>562.00</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>1,851.00</t>
+  </si>
+  <si>
+    <t>2,153.00</t>
+  </si>
+  <si>
+    <t>1,573.00</t>
+  </si>
+  <si>
+    <t>943.00</t>
   </si>
   <si>
     <t>1,113.00</t>
   </si>
   <si>
-    <t>689.00</t>
-  </si>
-  <si>
-    <t>502.00</t>
-  </si>
-  <si>
-    <t>871.00</t>
-  </si>
-  <si>
-    <t>2,359.00</t>
-  </si>
-  <si>
-    <t>1,996.00</t>
-  </si>
-  <si>
-    <t>1,754.00</t>
-  </si>
-  <si>
-    <t>635.00</t>
-  </si>
-  <si>
-    <t>447.00</t>
-  </si>
-  <si>
-    <t>647.00</t>
-  </si>
-  <si>
-    <t>804.00</t>
-  </si>
-  <si>
-    <t>992.00</t>
-  </si>
-  <si>
-    <t>580.00</t>
-  </si>
-  <si>
-    <t>695.00</t>
-  </si>
-  <si>
-    <t>586.00</t>
-  </si>
-  <si>
-    <t>986.00</t>
-  </si>
-  <si>
-    <t>1,433.00</t>
-  </si>
-  <si>
-    <t>750.00</t>
-  </si>
-  <si>
-    <t>1,040.00</t>
-  </si>
-  <si>
-    <t>968.00</t>
-  </si>
-  <si>
-    <t>744.00</t>
-  </si>
-  <si>
-    <t>719.00</t>
-  </si>
-  <si>
-    <t>1,270.00</t>
-  </si>
-  <si>
-    <t>810.00</t>
-  </si>
-  <si>
-    <t>1,191.00</t>
-  </si>
-  <si>
-    <t>883.00</t>
-  </si>
-  <si>
-    <t>738.00</t>
-  </si>
-  <si>
-    <t>907.00</t>
-  </si>
-  <si>
-    <t>756.00</t>
-  </si>
-  <si>
-    <t>980.00</t>
-  </si>
-  <si>
-    <t>822.00</t>
-  </si>
-  <si>
-    <t>1,694.00</t>
-  </si>
-  <si>
-    <t>1,149.00</t>
-  </si>
-  <si>
-    <t>2,746.00</t>
-  </si>
-  <si>
-    <t>1,452.00</t>
-  </si>
-  <si>
-    <t>641.00</t>
-  </si>
-  <si>
-    <t>792.00</t>
-  </si>
-  <si>
-    <t>828.00</t>
-  </si>
-  <si>
-    <t>1,076.00</t>
-  </si>
-  <si>
-    <t>925.00</t>
-  </si>
-  <si>
-    <t>5,783.00</t>
-  </si>
-  <si>
-    <t>7,223.00</t>
-  </si>
-  <si>
-    <t>1,210.00</t>
-  </si>
-  <si>
-    <t>1,125.00</t>
-  </si>
-  <si>
-    <t>1,095.00</t>
-  </si>
-  <si>
-    <t>1,087.00</t>
-  </si>
-  <si>
-    <t>798.00</t>
-  </si>
-  <si>
-    <t>3,025.00</t>
-  </si>
-  <si>
-    <t>1,899.00</t>
-  </si>
-  <si>
-    <t>2,178.00</t>
-  </si>
-  <si>
-    <t>943.00</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>574.00</t>
-  </si>
-  <si>
-    <t>465.00</t>
-  </si>
-  <si>
-    <t>405.00</t>
-  </si>
-  <si>
-    <t>1,571.00</t>
-  </si>
-  <si>
-    <t>1,887.00</t>
-  </si>
-  <si>
-    <t>1,409.00</t>
-  </si>
-  <si>
-    <t>955.00</t>
-  </si>
-  <si>
-    <t>2,057.00</t>
-  </si>
-  <si>
-    <t>919.00</t>
-  </si>
-  <si>
-    <t>605.00</t>
-  </si>
-  <si>
-    <t>683.00</t>
-  </si>
-  <si>
-    <t>847.00</t>
-  </si>
-  <si>
-    <t>1,331.00</t>
-  </si>
-  <si>
-    <t>3,267.00</t>
-  </si>
-  <si>
-    <t>949.00</t>
-  </si>
-  <si>
-    <t>1,034.00</t>
+    <t>2,541.00</t>
+  </si>
+  <si>
+    <t>677.00</t>
+  </si>
+  <si>
+    <t>786.00</t>
+  </si>
+  <si>
+    <t>1,500.00</t>
+  </si>
+  <si>
+    <t>3,751.00</t>
+  </si>
+  <si>
+    <t>1,119.00</t>
+  </si>
+  <si>
+    <t>1,240.00</t>
   </si>
   <si>
     <t>Bebés y Maternidad &gt; Accesorios &gt; Mamaderas y Biberones</t>
@@ -1337,6 +1355,346 @@
   </si>
   <si>
     <t>bebes, taza con asa y tapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de silicona. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de silicona. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado, durante al menos los primeros 6 meses de vida, ya que las defensas del beb&amp;eacute; no est&amp;aacute;n a&amp;uacute;n totalmente desarrolladas. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;, vertiendo unas gotas sobre la cara interna de la mu&amp;ntilde;eca, se deber&amp;aacute; sentir que est&amp;aacute; templada. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis, ya que si el beb&amp;eacute; permanece acostado, aumenta el riesgo que algo de l&amp;iacute;quido se introduzca en la Trompa de Eustaquio y provoque inflamaci&amp;oacute;n. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa, Capuch&amp;oacute;n y Asas de polipropileno Tetina de silicona. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado, durante al menos los primeros 6 meses de vida, ya que las defensas del beb&amp;eacute; no est&amp;aacute;n a&amp;uacute;n totalmente desarrolladas. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;, vertiendo unas gotas sobre la cara interna de la mu&amp;ntilde;eca, se deber&amp;aacute; sentir que est&amp;aacute; templada. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis, ya que si el beb&amp;eacute; permanece acostado, aumenta el riesgo que algo de l&amp;iacute;quido se introduzca en la Trompa de Eustaquio y provoque inflamaci&amp;oacute;n. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de l&amp;aacute;tex. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Esponja de baño con forma de oso/a, para nena y varón.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Poliuretano expandido</t>
+  </si>
+  <si>
+    <t>Cepillo especialmente diseñado para la limpieza del cuerpo del biberón, ya que permite remover los restos de leche ó jugo, adheridos al mismo.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Alambre galvanizado forrado, y filamentos de polipropileno.</t>
+  </si>
+  <si>
+    <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno.Encastre de ABS. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en frío con el producto adecuado.</t>
+  </si>
+  <si>
+    <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno.Encastre de ABS. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador ó freezer. Esterilizar en frío con el producto adecuado.&lt;br /&gt;
+No hervir.&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Mango e interior en esfera de polipropileno. Esfera de poliestireno.&lt;br /&gt;_x000D_
+&lt;br /&gt;_x000D_
+Forma de uso: al agitarlo produce un suave tintineo que llamar la atenci&amp;oacute;n del beb&amp;eacute;, entreteni&amp;eacute;ndolo y estimulando sus sentidos.&lt;/p&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t>Materiales: Mango, óvalo y esferita interior de poliestireno. Encastre de ABS. Tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: al agitarlo produce un sonido que llamar la atención del bebé, entreteniéndolo y estimulando sus sentidos.</t>
+  </si>
+  <si>
+    <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno.Encastre de ABS.&lt;br /&gt;
+Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa. Usar estando refrigerado. No colocar en congelador ó freezer. Esterilizar en frío con el producto adecuado.&lt;br /&gt;
+No hervir.&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición.</t>
+  </si>
+  <si>
+    <t>Materiales: taza, tapa con pico sorbedor y tapa con rosca, de polipropileno. Tetina de silicona.&lt;br /&gt;
+&lt;br /&gt;
+Contrapeso de hierro zincado. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: Para la etapa de transición entre el biberón y la taza.&lt;br /&gt;
+&lt;br /&gt;
+Taza Biberón: coloque la tapa con rosca y tetina, para que el niño se familiarice con la taza, pero continúe succionando como del biberón.&lt;br /&gt;
+&lt;br /&gt;
+Taza Juguera: coloque la tapa con sorbedor, para que el pequeño ingiera líquidos de manera controlada a través del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Taza Uso normal: sin colocar tapa, puede tomar directamente de la taza.&lt;br /&gt;
+&lt;br /&gt;
+Higienizar siempre todas las partes con agua y detergente suave, en especial el pico de la tapa.&lt;br /&gt;
+&lt;br /&gt;
+Revisar la tetina con regularidad, reemplazandola ante el menor signo de deterioro. No usar la tetina como chupete. No exponer al sol. Taza No apta para microondas. Capac.aprox. 200 ml.</t>
+  </si>
+  <si>
+    <t>Materiales: Cuerpo y tapa de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: la tapa con la bombilla permite la ingesta de líquidos de manera controlada. Lavar con agua y detergente suave, asegurando la correcta higiene de la bombilla. Capac. aprox. 200ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Plato hondo de 16.5 cms. + Vaso beb&amp;eacute; decorado, con tapa sorbedora, de 140 ml&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los art&amp;iacute;culos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoraci&amp;oacute;n No son t&amp;oacute;xicos.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Materiales: taza y tapa con pico sorbedor, de polipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Contrapeso de hierro zincado. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: Para la etapa de transición entre la juguera y la taza.&lt;br /&gt;
+&lt;br /&gt;
+Taza Juguera: coloque la tapa con sorbedor, para que el pequeño ingiera líquidos de manera controlada a través del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Taza Uso normal: sin colocar tapa, puede tomar directamente de la taza.&lt;br /&gt;
+&lt;br /&gt;
+Higienizar siempre todas las partes con agua y detergente suave. En especial el pico de la tapa.&lt;br /&gt;
+&lt;br /&gt;
+Taza No apta para microondas. Capac.aprox. 200ml.</t>
+  </si>
+  <si>
+    <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en frío. No hervir.&lt;br /&gt;
+&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición, ya que el material blando y granulado del anillo ayuda a que se fije en la encía cuando lo muerde, sumándose con el frío un efecto calmante.&lt;br /&gt;
+&lt;br /&gt;
+Al moverlo podrá escuchar un suave tintineo que llamar su atención.</t>
+  </si>
+  <si>
+    <t>Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no tóxica. Mango de poliestireno. Tintas y/o pigmentos no tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en frío. No hervir.&lt;br /&gt;
+&lt;br /&gt;
+Alivia las molestias de las encías inflamadas por la dentición, ya que el material blando y granulado del anillo ayuda a que se fije en la encía cuando lo muerde, sum?ndose con el frío un efecto calmante.&lt;br /&gt;
+&lt;br /&gt;
+Al moverlo podrá escuchar un suave tintineo que llamar su atención.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Tetina de l&amp;aacute;tex. Escudo, Bot&amp;oacute;n, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sue&amp;ntilde;o.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales: Tetina de látex. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos. Forma de uso: antes del primer uso, lavar con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. No exponer al sol. No untar con sustancias dulces. No colgar el chupete alrededor del cuello durante el sueño. Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+</t>
+  </si>
+  <si>
+    <t>Materiales: Tetina de silicona. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales: Tetina de silicona. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos. Forma de uso: antes del primer uso, lavar con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. No exponer al sol. No untar con sustancias dulces. No colgar el chupete alrededor del cuello durante el sueño. Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+</t>
+  </si>
+  <si>
+    <t>Materiales: Tetina de látex. Escudo, Botón, Aro y Protector de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+  </si>
+  <si>
+    <t>Materiales: Tetina de látex. Escudo, Botón y Aro de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado. &lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+  </si>
+  <si>
+    <t>Materiales: Tetina de silicona. Escudo, Botón y Aro de polipropileno. Decorado con tintas y/o pigmentos No tóxicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+  </si>
+  <si>
+    <t>Materiales: silicona.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: antes del primer uso, lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+No exponer al sol. No untar con sustancias dulces.&lt;br /&gt;
+&lt;br /&gt;
+No colgar el chupete alrededor del cuello durante el sueño.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad. Reemplazar ante el menor signo de deterioro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Cilindro contenedor para Biber&amp;oacute;n Tradicional. Conserva la temperatura del alimento por varias horas.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Poliestireno expandido (telgopor)&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Cambiador totalmente impermeable.&lt;br /&gt;
+Medidas 40x70 cms (abierto) y 24x27 cms (cerrado).&lt;br /&gt;
+Fácil limpieza.&lt;br /&gt;
+Materiales: tela plástica, relleno de guata.</t>
+  </si>
+  <si>
+    <t>Protege al bebé del frío y la lluvia. Medida universal.&lt;br /&gt;
+Materiales: tela plástica, cinta de algodón.</t>
+  </si>
+  <si>
+    <t>Para coche de bebé y cuna de viaje. Medida universal.&lt;br /&gt;
+Materiales: tela de tul, elástico poliéster</t>
+  </si>
+  <si>
+    <t>Materiales: Poilipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+El diseño angular ayuda al bebé a llevar con mayor facilidad el alimento a su boca.</t>
+  </si>
+  <si>
+    <t>Materiales: polipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+La forma de avioncito ha sido diseñada para que la tarea de alimentar al bebé se torne mas divertida, contribuyendo en la aceptación del alimento.</t>
+  </si>
+  <si>
+    <t>Plato hondo de 16,5 cms + 1 Cuchara Avioncito +  Vaso bebé decorado, con tapa sorbedora, de 140 ml.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+  </si>
+  <si>
+    <t>Plato hondo de 16,5 cms +  Cuchara avioncito +  Taza decorada, con doble asa, de 200 ml.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+  </si>
+  <si>
+    <t>Plato hondo de 16,5 cms +  Cuchara avioncito +  Esponja.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+  </si>
+  <si>
+    <t>Plato hondo de 16,5 cms +  Cuchara Avioncito +  Vaso bebé decorado, con tapa sorbedora, de 140 ml.&lt;br /&gt;
+&lt;br /&gt;
+Materiales: Todos los artículos han sido fabricados con materia prima de primera calidad (polipropileno, policarbonato, polietileno). Las tintas y pigmentos utilizados en la decoración No son tóxicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Botella, Rosca, Tapa y Capuch&amp;oacute;n de polipropileno Tetina de l&amp;aacute;tex. Forma de uso: lavar todas las partes con agua y detergente suave. Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro. Verificar siempre la temperatura del alimento antes de ofrec&amp;eacute;rcelo al beb&amp;eacute;. Ofrecer la mamadera al beb&amp;eacute; en posici&amp;oacute;n semi-sentado, para disminu&amp;iacute;r el riesgo de otitis. No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Mango, &amp;oacute;valo y esferita interior de poliestireno.&lt;br /&gt;
+Encastre de ABS.&lt;br /&gt;
+Tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+Forma de uso: al agitarlo produce un sonido que llamar&amp;aacute; la atenci&amp;oacute;n del beb&amp;eacute;, entreteni&amp;eacute;ndolo y estimulando sus sentidos.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Anillo refrigerante de E.V.A (Etileno y Acetato de vinilo) Agua tratada, no t&amp;oacute;xica. Mango de poliestireno.Encastre de ABS. Tintas y/o pigmentos no t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Lavar con agua y detergente suave. Guardar en heladera en recipiente limpio con tapa.&lt;br /&gt;
+&lt;br /&gt;
+Usar estando refrigerado. No colocar en congelador / freezer. Esterilizar en fr&amp;iacute;o con el producto adecuado.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: L&amp;aacute;tex&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado. Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura. Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Silicona&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: lavar con agua y detergente suave.&lt;br /&gt;
+&lt;br /&gt;
+Esterilizar hirviendo durante 5 minutos en recipiente destapado.&lt;br /&gt;
+&lt;br /&gt;
+Examinar la tetina con regularidad,estirando con fuerza para observar posibles riesgos de rotura.&lt;br /&gt;
+&lt;br /&gt;
+Reemplazar ante el menor signo de deterioro.&lt;br /&gt;
+&lt;br /&gt;
+No utilizar la tetina como chupete. No exponer al sol.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Polietileno. Pigmentos No t&amp;oacute;xicos. Forma de Uso: Desprender el eslab&amp;oacute;n de seguridad, pasar la cadena por el aro del chupete y cerrar. Colgar la cadena del cuello del beb&amp;eacute;. Examinar con regularidad y reemplazar ante el menor signo de deterioro. No utilizar durante el sue&amp;ntilde;o del beb&amp;eacute;.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: poliestireno alto impacto. Cinta algod&amp;oacute;n.&lt;br /&gt;
+&lt;br /&gt;
+Forma de uso: Prender el portachupete a la ropita del beb&amp;eacute;, asegurando el chupete en el otro extremo.&lt;br /&gt;
+&lt;br /&gt;
+Examinar el portachupete con regularidad. Reemplazar ante el menor signo de deterioro.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: Cuerpo y tapa de polipropileno. Decorado con tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: la tapa con sorbedor permite la ingesta de l&amp;iacute;quidos de manera controlada a traves del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Lavar con agua y detergente suave, asegurando la correcta higiene del pico. Capac.aprox. 140 ml.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Materiales: taza y tapa con pico sorbedor, de polipropileno.&lt;br /&gt;
+&lt;br /&gt;
+Decorado con tintas y/o pigmentos No t&amp;oacute;xicos.&lt;br /&gt;
+&lt;br /&gt;
+Forma de Uso: Para la etapa de transcisi&amp;oacute;n entre la juguera y la taza.&lt;br /&gt;
+&lt;br /&gt;
+Taza Juguera: coloque la tapa con sorbedor, para que el peque&amp;ntilde;o ingiera l&amp;iacute;quidos de manera controlada a trav&amp;eacute;s del pico con 3 orificios.&lt;br /&gt;
+&lt;br /&gt;
+Taza Uso normal: sin colocar tapa, puede tomar directamente de la taza.&lt;br /&gt;
+&lt;br /&gt;
+Higienizar siempre todas las partes con agua y detergente suave. En especial el pico de la tapa.&lt;br /&gt;
+&lt;br /&gt;
+Capac.aprox. 200ml.&lt;/p&gt;
+</t>
   </si>
   <si>
     <t>Teddy148</t>
@@ -1979,13 +2337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,2574 +2377,3018 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2">
-        <v>1244</v>
+        <v>1464</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>377</v>
-      </c>
-      <c r="K2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="L2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3">
-        <v>1290</v>
+        <v>1530</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>447</v>
+      </c>
+      <c r="L3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>1703</v>
+        <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>448</v>
+      </c>
+      <c r="L4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>15573</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>449</v>
+      </c>
+      <c r="L5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6">
-        <v>1177</v>
+        <v>1384</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H6" t="s">
-        <v>381</v>
-      </c>
-      <c r="K6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>387</v>
+      </c>
+      <c r="L6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7">
-        <v>1224</v>
+        <v>1437</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>450</v>
+      </c>
+      <c r="L7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>758</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
-        <v>383</v>
-      </c>
-      <c r="K8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>389</v>
+      </c>
+      <c r="L8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>552</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G9" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H9" t="s">
-        <v>384</v>
-      </c>
-      <c r="K9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>390</v>
+      </c>
+      <c r="L9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>552</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H10" t="s">
-        <v>385</v>
-      </c>
-      <c r="K10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
+        <v>298</v>
+      </c>
+      <c r="M10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C11">
-        <v>958</v>
+        <v>1098</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
+        <v>307</v>
+      </c>
+      <c r="L11" t="s">
+        <v>298</v>
+      </c>
+      <c r="M11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12">
+        <v>1098</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" t="s">
+        <v>392</v>
+      </c>
+      <c r="L12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13">
+        <v>2994</v>
+      </c>
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" t="s">
+        <v>308</v>
+      </c>
+      <c r="L13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>2462</v>
+      </c>
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" t="s">
+        <v>309</v>
+      </c>
+      <c r="L14" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15">
+        <v>2235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" t="s">
+        <v>310</v>
+      </c>
+      <c r="L15" t="s">
+        <v>298</v>
+      </c>
+      <c r="M15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16">
+        <v>758</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" t="s">
         <v>305</v>
       </c>
-      <c r="K11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12">
-        <v>958</v>
-      </c>
-      <c r="D12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G12" t="s">
-        <v>373</v>
-      </c>
-      <c r="H12" t="s">
-        <v>386</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="G16" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13">
-        <v>2595</v>
-      </c>
-      <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14">
-        <v>2196</v>
-      </c>
-      <c r="D14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15">
-        <v>1929</v>
-      </c>
-      <c r="D15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" t="s">
-        <v>308</v>
-      </c>
-      <c r="K15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <v>699</v>
-      </c>
-      <c r="D16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" t="s">
-        <v>371</v>
-      </c>
-      <c r="H16" t="s">
-        <v>387</v>
-      </c>
-      <c r="K16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>298</v>
+      </c>
+      <c r="M16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17">
         <v>492</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H17" t="s">
-        <v>388</v>
-      </c>
-      <c r="K17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>394</v>
+      </c>
+      <c r="L17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>712</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H18" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>452</v>
+      </c>
+      <c r="L18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C19">
-        <v>884</v>
+        <v>1011</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>313</v>
+      </c>
+      <c r="L19" t="s">
+        <v>298</v>
+      </c>
+      <c r="M19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C20">
-        <v>1091</v>
+        <v>1329</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G20" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K20" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>453</v>
+      </c>
+      <c r="L20" t="s">
+        <v>298</v>
+      </c>
+      <c r="M20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C21">
-        <v>1091</v>
+        <v>1329</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H21" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>454</v>
+      </c>
+      <c r="L21" t="s">
+        <v>298</v>
+      </c>
+      <c r="M21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22">
         <v>638</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E22" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G22" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H22" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K22" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>455</v>
+      </c>
+      <c r="L22" t="s">
+        <v>298</v>
+      </c>
+      <c r="M22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C23">
-        <v>765</v>
+        <v>898</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G23" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H23" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>456</v>
+      </c>
+      <c r="L23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M23" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C24">
         <v>645</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F24" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H24" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" t="s">
+        <v>455</v>
+      </c>
+      <c r="L24" t="s">
+        <v>298</v>
+      </c>
+      <c r="M24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25">
+        <v>1310</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" t="s">
+        <v>401</v>
+      </c>
+      <c r="K25" t="s">
+        <v>457</v>
+      </c>
+      <c r="L25" t="s">
+        <v>298</v>
+      </c>
+      <c r="M25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26">
+        <v>1877</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" t="s">
+        <v>381</v>
+      </c>
+      <c r="H26" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" t="s">
+        <v>458</v>
+      </c>
+      <c r="L26" t="s">
+        <v>298</v>
+      </c>
+      <c r="M26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27">
+        <v>985</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" t="s">
+        <v>381</v>
+      </c>
+      <c r="H27" t="s">
+        <v>403</v>
+      </c>
+      <c r="K27" t="s">
+        <v>459</v>
+      </c>
+      <c r="L27" t="s">
+        <v>298</v>
+      </c>
+      <c r="M27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28">
+        <v>898</v>
+      </c>
+      <c r="D28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F28" t="s">
         <v>316</v>
       </c>
-      <c r="G24" t="s">
-        <v>374</v>
-      </c>
-      <c r="H24" t="s">
-        <v>394</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="G28" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" t="s">
+        <v>404</v>
+      </c>
+      <c r="K28" t="s">
+        <v>460</v>
+      </c>
+      <c r="L28" t="s">
+        <v>298</v>
+      </c>
+      <c r="M28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <v>1371</v>
+      </c>
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" t="s">
+        <v>405</v>
+      </c>
+      <c r="K29" t="s">
+        <v>461</v>
+      </c>
+      <c r="L29" t="s">
+        <v>298</v>
+      </c>
+      <c r="M29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>1304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" t="s">
+        <v>406</v>
+      </c>
+      <c r="K30" t="s">
+        <v>462</v>
+      </c>
+      <c r="L30" t="s">
+        <v>298</v>
+      </c>
+      <c r="M30" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>1331</v>
+      </c>
+      <c r="D31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" t="s">
+        <v>380</v>
+      </c>
+      <c r="H31" t="s">
+        <v>407</v>
+      </c>
+      <c r="K31" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25">
-        <v>1085</v>
-      </c>
-      <c r="D25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" t="s">
-        <v>296</v>
-      </c>
-      <c r="F25" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" t="s">
-        <v>374</v>
-      </c>
-      <c r="H25" t="s">
-        <v>395</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32">
+        <v>978</v>
+      </c>
+      <c r="D32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" t="s">
+        <v>379</v>
+      </c>
+      <c r="H32" t="s">
+        <v>408</v>
+      </c>
+      <c r="K32" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26">
-        <v>1576</v>
-      </c>
-      <c r="D26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" t="s">
-        <v>296</v>
-      </c>
-      <c r="F26" t="s">
-        <v>318</v>
-      </c>
-      <c r="G26" t="s">
-        <v>375</v>
-      </c>
-      <c r="H26" t="s">
-        <v>396</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33">
+        <v>952</v>
+      </c>
+      <c r="D33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G33" t="s">
+        <v>379</v>
+      </c>
+      <c r="H33" t="s">
+        <v>409</v>
+      </c>
+      <c r="K33" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27">
-        <v>825</v>
-      </c>
-      <c r="D27" t="s">
-        <v>226</v>
-      </c>
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="F27" t="s">
-        <v>319</v>
-      </c>
-      <c r="G27" t="s">
-        <v>375</v>
-      </c>
-      <c r="H27" t="s">
-        <v>397</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L33" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34">
+        <v>1624</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H34" t="s">
+        <v>410</v>
+      </c>
+      <c r="K34" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28">
-        <v>765</v>
-      </c>
-      <c r="D28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E28" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" t="s">
-        <v>315</v>
-      </c>
-      <c r="G28" t="s">
-        <v>375</v>
-      </c>
-      <c r="H28" t="s">
-        <v>398</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35">
+        <v>1050</v>
+      </c>
+      <c r="D35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>379</v>
+      </c>
+      <c r="H35" t="s">
+        <v>411</v>
+      </c>
+      <c r="K35" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29">
-        <v>1144</v>
-      </c>
-      <c r="D29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" t="s">
-        <v>296</v>
-      </c>
-      <c r="F29" t="s">
-        <v>320</v>
-      </c>
-      <c r="G29" t="s">
-        <v>375</v>
-      </c>
-      <c r="H29" t="s">
-        <v>399</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36">
+        <v>1491</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>379</v>
+      </c>
+      <c r="H36" t="s">
+        <v>412</v>
+      </c>
+      <c r="K36" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30">
-        <v>1065</v>
-      </c>
-      <c r="D30" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" t="s">
-        <v>296</v>
-      </c>
-      <c r="F30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G30" t="s">
-        <v>374</v>
-      </c>
-      <c r="H30" t="s">
-        <v>400</v>
-      </c>
-      <c r="K30" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31">
-        <v>1085</v>
-      </c>
-      <c r="D31" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" t="s">
-        <v>296</v>
-      </c>
-      <c r="F31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G31" t="s">
-        <v>374</v>
-      </c>
-      <c r="H31" t="s">
-        <v>401</v>
-      </c>
-      <c r="K31" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32">
-        <v>818</v>
-      </c>
-      <c r="D32" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" t="s">
-        <v>296</v>
-      </c>
-      <c r="F32" t="s">
-        <v>322</v>
-      </c>
-      <c r="G32" t="s">
-        <v>373</v>
-      </c>
-      <c r="H32" t="s">
-        <v>402</v>
-      </c>
-      <c r="K32" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33">
-        <v>791</v>
-      </c>
-      <c r="D33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" t="s">
-        <v>323</v>
-      </c>
-      <c r="G33" t="s">
-        <v>373</v>
-      </c>
-      <c r="H33" t="s">
-        <v>403</v>
-      </c>
-      <c r="K33" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34">
-        <v>1397</v>
-      </c>
-      <c r="D34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H34" t="s">
-        <v>404</v>
-      </c>
-      <c r="K34" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35">
-        <v>891</v>
-      </c>
-      <c r="D35" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" t="s">
-        <v>296</v>
-      </c>
-      <c r="F35" t="s">
-        <v>325</v>
-      </c>
-      <c r="G35" t="s">
-        <v>373</v>
-      </c>
-      <c r="H35" t="s">
-        <v>405</v>
-      </c>
-      <c r="K35" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36">
-        <v>1310</v>
-      </c>
-      <c r="D36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" t="s">
-        <v>296</v>
-      </c>
-      <c r="F36" t="s">
-        <v>326</v>
-      </c>
-      <c r="G36" t="s">
-        <v>373</v>
-      </c>
-      <c r="H36" t="s">
-        <v>406</v>
-      </c>
-      <c r="K36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" t="s">
+        <v>298</v>
+      </c>
+      <c r="M36" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C37">
-        <v>971</v>
+        <v>1111</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H37" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K37" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>466</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C38">
-        <v>812</v>
+        <v>958</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H38" t="s">
-        <v>408</v>
-      </c>
-      <c r="K38" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>414</v>
+      </c>
+      <c r="L38" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C39">
-        <v>998</v>
+        <v>1151</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H39" t="s">
-        <v>409</v>
-      </c>
-      <c r="K39" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>415</v>
+      </c>
+      <c r="L39" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40">
         <v>832</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G40" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H40" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>469</v>
+      </c>
+      <c r="L40" t="s">
+        <v>298</v>
+      </c>
+      <c r="M40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C41">
         <v>971</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G41" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H41" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K41" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>470</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C42">
-        <v>1078</v>
+        <v>1251</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G42" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H42" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K42" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>471</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C43">
-        <v>1078</v>
+        <v>1251</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F43" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H43" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K43" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>471</v>
+      </c>
+      <c r="L43" t="s">
+        <v>298</v>
+      </c>
+      <c r="M43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C44">
-        <v>904</v>
+        <v>1065</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G44" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H44" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K44" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>472</v>
+      </c>
+      <c r="L44" t="s">
+        <v>298</v>
+      </c>
+      <c r="M44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C45">
-        <v>1863</v>
+        <v>2089</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F45" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G45" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H45" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K45" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>473</v>
+      </c>
+      <c r="L45" t="s">
+        <v>298</v>
+      </c>
+      <c r="M45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>1264</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F46" t="s">
-        <v>334</v>
-      </c>
-      <c r="K46" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s">
+        <v>298</v>
+      </c>
+      <c r="M46" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C47">
-        <v>3021</v>
+        <v>3527</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F47" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G47" t="s">
+        <v>382</v>
+      </c>
+      <c r="H47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>474</v>
+      </c>
+      <c r="L47" t="s">
+        <v>298</v>
+      </c>
+      <c r="M47" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48">
+        <v>1863</v>
+      </c>
+      <c r="D48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>382</v>
+      </c>
+      <c r="H48" t="s">
+        <v>423</v>
+      </c>
+      <c r="K48" t="s">
+        <v>475</v>
+      </c>
+      <c r="L48" t="s">
+        <v>298</v>
+      </c>
+      <c r="M48" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49">
+        <v>838</v>
+      </c>
+      <c r="D49" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>381</v>
+      </c>
+      <c r="H49" t="s">
+        <v>424</v>
+      </c>
+      <c r="K49" t="s">
+        <v>476</v>
+      </c>
+      <c r="L49" t="s">
+        <v>298</v>
+      </c>
+      <c r="M49" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50">
+        <v>965</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" t="s">
+        <v>298</v>
+      </c>
+      <c r="F50" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" t="s">
+        <v>381</v>
+      </c>
+      <c r="H50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>477</v>
+      </c>
+      <c r="L50" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51">
+        <v>1044</v>
+      </c>
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51" t="s">
+        <v>342</v>
+      </c>
+      <c r="G51" t="s">
+        <v>381</v>
+      </c>
+      <c r="H51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" t="s">
+        <v>478</v>
+      </c>
+      <c r="L51" t="s">
+        <v>298</v>
+      </c>
+      <c r="M51" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52">
+        <v>1078</v>
+      </c>
+      <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52" t="s">
+        <v>381</v>
+      </c>
+      <c r="H52" t="s">
+        <v>427</v>
+      </c>
+      <c r="K52" t="s">
+        <v>479</v>
+      </c>
+      <c r="L52" t="s">
+        <v>298</v>
+      </c>
+      <c r="M52" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53">
+        <v>1390</v>
+      </c>
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>381</v>
+      </c>
+      <c r="H53" t="s">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s">
+        <v>298</v>
+      </c>
+      <c r="M53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54">
+        <v>1198</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" t="s">
+        <v>298</v>
+      </c>
+      <c r="F54" t="s">
+        <v>345</v>
+      </c>
+      <c r="G54" t="s">
+        <v>381</v>
+      </c>
+      <c r="H54" t="s">
+        <v>429</v>
+      </c>
+      <c r="K54" t="s">
+        <v>480</v>
+      </c>
+      <c r="L54" t="s">
+        <v>298</v>
+      </c>
+      <c r="M54" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55">
+        <v>1050</v>
+      </c>
+      <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55" t="s">
+        <v>381</v>
+      </c>
+      <c r="H55" t="s">
+        <v>430</v>
+      </c>
+      <c r="K55" t="s">
+        <v>481</v>
+      </c>
+      <c r="L55" t="s">
+        <v>298</v>
+      </c>
+      <c r="M55" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56">
+        <v>7134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" t="s">
+        <v>346</v>
+      </c>
+      <c r="L56" t="s">
+        <v>298</v>
+      </c>
+      <c r="M56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57">
+        <v>8918</v>
+      </c>
+      <c r="D57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" t="s">
+        <v>347</v>
+      </c>
+      <c r="L57" t="s">
+        <v>298</v>
+      </c>
+      <c r="M57" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58">
+        <v>1530</v>
+      </c>
+      <c r="D58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" t="s">
+        <v>300</v>
+      </c>
+      <c r="L58" t="s">
+        <v>298</v>
+      </c>
+      <c r="M58" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59">
+        <v>1462</v>
+      </c>
+      <c r="D59" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" t="s">
+        <v>348</v>
+      </c>
+      <c r="G59" t="s">
         <v>376</v>
       </c>
-      <c r="H47" t="s">
-        <v>416</v>
-      </c>
-      <c r="K47" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48">
-        <v>1597</v>
-      </c>
-      <c r="D48" t="s">
-        <v>247</v>
-      </c>
-      <c r="E48" t="s">
-        <v>296</v>
-      </c>
-      <c r="F48" t="s">
-        <v>336</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H59" t="s">
+        <v>431</v>
+      </c>
+      <c r="K59" t="s">
+        <v>447</v>
+      </c>
+      <c r="L59" t="s">
+        <v>298</v>
+      </c>
+      <c r="M59" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60">
+        <v>1344</v>
+      </c>
+      <c r="D60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" t="s">
+        <v>349</v>
+      </c>
+      <c r="G60" t="s">
         <v>376</v>
       </c>
-      <c r="H48" t="s">
-        <v>417</v>
-      </c>
-      <c r="K48" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49">
-        <v>705</v>
-      </c>
-      <c r="D49" t="s">
-        <v>248</v>
-      </c>
-      <c r="E49" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" t="s">
-        <v>337</v>
-      </c>
-      <c r="G49" t="s">
-        <v>375</v>
-      </c>
-      <c r="H49" t="s">
-        <v>418</v>
-      </c>
-      <c r="K49" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50">
-        <v>812</v>
-      </c>
-      <c r="D50" t="s">
-        <v>249</v>
-      </c>
-      <c r="E50" t="s">
-        <v>296</v>
-      </c>
-      <c r="F50" t="s">
-        <v>328</v>
-      </c>
-      <c r="G50" t="s">
-        <v>375</v>
-      </c>
-      <c r="H50" t="s">
-        <v>419</v>
-      </c>
-      <c r="K50" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51">
-        <v>871</v>
-      </c>
-      <c r="D51" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" t="s">
-        <v>296</v>
-      </c>
-      <c r="F51" t="s">
-        <v>338</v>
-      </c>
-      <c r="G51" t="s">
-        <v>375</v>
-      </c>
-      <c r="H51" t="s">
-        <v>420</v>
-      </c>
-      <c r="K51" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52">
-        <v>911</v>
-      </c>
-      <c r="D52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" t="s">
-        <v>339</v>
-      </c>
-      <c r="G52" t="s">
-        <v>375</v>
-      </c>
-      <c r="H52" t="s">
-        <v>421</v>
-      </c>
-      <c r="K52" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53">
-        <v>1184</v>
-      </c>
-      <c r="D53" t="s">
-        <v>252</v>
-      </c>
-      <c r="E53" t="s">
-        <v>296</v>
-      </c>
-      <c r="F53" t="s">
-        <v>340</v>
-      </c>
-      <c r="G53" t="s">
-        <v>375</v>
-      </c>
-      <c r="H53" t="s">
-        <v>422</v>
-      </c>
-      <c r="K53" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54">
-        <v>1018</v>
-      </c>
-      <c r="D54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F54" t="s">
-        <v>341</v>
-      </c>
-      <c r="G54" t="s">
-        <v>375</v>
-      </c>
-      <c r="H54" t="s">
-        <v>423</v>
-      </c>
-      <c r="K54" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55">
-        <v>891</v>
-      </c>
-      <c r="D55" t="s">
-        <v>254</v>
-      </c>
-      <c r="E55" t="s">
-        <v>296</v>
-      </c>
-      <c r="F55" t="s">
-        <v>325</v>
-      </c>
-      <c r="G55" t="s">
-        <v>375</v>
-      </c>
-      <c r="H55" t="s">
-        <v>424</v>
-      </c>
-      <c r="K55" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56">
-        <v>6361</v>
-      </c>
-      <c r="D56" t="s">
-        <v>255</v>
-      </c>
-      <c r="E56" t="s">
-        <v>296</v>
-      </c>
-      <c r="F56" t="s">
-        <v>342</v>
-      </c>
-      <c r="K56" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57">
-        <v>7945</v>
-      </c>
-      <c r="D57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57" t="s">
-        <v>296</v>
-      </c>
-      <c r="F57" t="s">
-        <v>343</v>
-      </c>
-      <c r="K57" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58">
-        <v>1331</v>
-      </c>
-      <c r="D58" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" t="s">
-        <v>344</v>
-      </c>
-      <c r="K58" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59">
-        <v>1238</v>
-      </c>
-      <c r="D59" t="s">
-        <v>258</v>
-      </c>
-      <c r="E59" t="s">
-        <v>296</v>
-      </c>
-      <c r="F59" t="s">
-        <v>345</v>
-      </c>
-      <c r="G59" t="s">
-        <v>370</v>
-      </c>
-      <c r="H59" t="s">
-        <v>425</v>
-      </c>
-      <c r="K59" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60">
-        <v>1144</v>
-      </c>
-      <c r="D60" t="s">
-        <v>259</v>
-      </c>
-      <c r="E60" t="s">
-        <v>296</v>
-      </c>
-      <c r="F60" t="s">
-        <v>320</v>
-      </c>
-      <c r="G60" t="s">
-        <v>370</v>
-      </c>
       <c r="H60" t="s">
-        <v>426</v>
-      </c>
-      <c r="K60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s">
+        <v>298</v>
+      </c>
+      <c r="M60" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C61">
-        <v>1205</v>
+        <v>1410</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E61" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F61" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G61" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H61" t="s">
-        <v>427</v>
-      </c>
-      <c r="K61" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>433</v>
+      </c>
+      <c r="L61" t="s">
+        <v>298</v>
+      </c>
+      <c r="M61" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C62">
-        <v>1196</v>
+        <v>1397</v>
       </c>
       <c r="D62" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E62" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F62" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G62" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H62" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K62" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>450</v>
+      </c>
+      <c r="L62" t="s">
+        <v>298</v>
+      </c>
+      <c r="M62" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C63">
         <v>878</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F63" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G63" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H63" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K63" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>298</v>
+      </c>
+      <c r="M63" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C64">
         <v>871</v>
       </c>
       <c r="D64" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F64" t="s">
-        <v>338</v>
-      </c>
-      <c r="K64" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>353</v>
+      </c>
+      <c r="L64" t="s">
+        <v>298</v>
+      </c>
+      <c r="M64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C65">
-        <v>3328</v>
+        <v>3846</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F65" t="s">
-        <v>349</v>
-      </c>
-      <c r="K65" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>354</v>
+      </c>
+      <c r="L65" t="s">
+        <v>298</v>
+      </c>
+      <c r="M65" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C66">
-        <v>832</v>
+        <v>1004</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="G66" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H66" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>483</v>
+      </c>
+      <c r="L66" t="s">
+        <v>298</v>
+      </c>
+      <c r="M66" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C67">
-        <v>832</v>
+        <v>1004</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="G67" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H67" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K67" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>484</v>
+      </c>
+      <c r="L67" t="s">
+        <v>298</v>
+      </c>
+      <c r="M67" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C68">
-        <v>2089</v>
+        <v>2449</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F68" t="s">
-        <v>350</v>
-      </c>
-      <c r="K68" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>356</v>
+      </c>
+      <c r="L68" t="s">
+        <v>298</v>
+      </c>
+      <c r="M68" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C69">
-        <v>2396</v>
+        <v>2781</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F69" t="s">
-        <v>351</v>
-      </c>
-      <c r="K69" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>357</v>
+      </c>
+      <c r="L69" t="s">
+        <v>298</v>
+      </c>
+      <c r="M69" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C70">
-        <v>2089</v>
+        <v>2449</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F70" t="s">
-        <v>350</v>
-      </c>
-      <c r="K70" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>356</v>
+      </c>
+      <c r="L70" t="s">
+        <v>298</v>
+      </c>
+      <c r="M70" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C71">
-        <v>1037</v>
+        <v>1170</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G71" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H71" t="s">
-        <v>432</v>
-      </c>
-      <c r="K71" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>438</v>
+      </c>
+      <c r="L71" t="s">
+        <v>298</v>
+      </c>
+      <c r="M71" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C72">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="D72" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F72" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G72" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H72" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="K72" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>485</v>
+      </c>
+      <c r="L72" t="s">
+        <v>298</v>
+      </c>
+      <c r="M72" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C73">
         <v>631</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F73" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G73" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H73" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K73" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>486</v>
+      </c>
+      <c r="L73" t="s">
+        <v>298</v>
+      </c>
+      <c r="M73" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C74">
-        <v>1397</v>
+        <v>1663</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F74" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G74" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H74" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K74" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>486</v>
+      </c>
+      <c r="L74" t="s">
+        <v>298</v>
+      </c>
+      <c r="M74" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C75">
-        <v>812</v>
+        <v>952</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F75" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G75" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H75" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K75" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>487</v>
+      </c>
+      <c r="L75" t="s">
+        <v>298</v>
+      </c>
+      <c r="M75" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C76">
-        <v>812</v>
+        <v>958</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F76" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G76" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H76" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K76" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>488</v>
+      </c>
+      <c r="L76" t="s">
+        <v>298</v>
+      </c>
+      <c r="M76" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C77">
-        <v>812</v>
+        <v>958</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E77" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F77" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G77" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H77" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K77" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>488</v>
+      </c>
+      <c r="L77" t="s">
+        <v>298</v>
+      </c>
+      <c r="M77" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C78">
-        <v>884</v>
+        <v>1065</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F78" t="s">
-        <v>312</v>
-      </c>
-      <c r="K78" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="L78" t="s">
+        <v>298</v>
+      </c>
+      <c r="M78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C79">
-        <v>884</v>
+        <v>1065</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F79" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="G79" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H79" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K79" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>489</v>
+      </c>
+      <c r="L79" t="s">
+        <v>298</v>
+      </c>
+      <c r="M79" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C80">
-        <v>512</v>
+        <v>618</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E80" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F80" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G80" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H80" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K80" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>490</v>
+      </c>
+      <c r="L80" t="s">
+        <v>298</v>
+      </c>
+      <c r="M80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C81">
         <v>446</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E81" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" t="s">
+        <v>363</v>
+      </c>
+      <c r="L81" t="s">
+        <v>298</v>
+      </c>
+      <c r="M81" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82">
+        <v>2036</v>
+      </c>
+      <c r="D82" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" t="s">
+        <v>364</v>
+      </c>
+      <c r="L82" t="s">
+        <v>298</v>
+      </c>
+      <c r="M82" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83">
+        <v>2368</v>
+      </c>
+      <c r="D83" t="s">
+        <v>284</v>
+      </c>
+      <c r="E83" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" t="s">
+        <v>365</v>
+      </c>
+      <c r="L83" t="s">
+        <v>298</v>
+      </c>
+      <c r="M83" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84">
+        <v>1730</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" t="s">
+        <v>366</v>
+      </c>
+      <c r="L84" t="s">
+        <v>298</v>
+      </c>
+      <c r="M84" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85">
+        <v>1037</v>
+      </c>
+      <c r="D85" t="s">
+        <v>286</v>
+      </c>
+      <c r="E85" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" t="s">
+        <v>367</v>
+      </c>
+      <c r="L85" t="s">
+        <v>298</v>
+      </c>
+      <c r="M85" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86">
+        <v>1224</v>
+      </c>
+      <c r="D86" t="s">
+        <v>287</v>
+      </c>
+      <c r="E86" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" t="s">
+        <v>368</v>
+      </c>
+      <c r="L86" t="s">
+        <v>298</v>
+      </c>
+      <c r="M86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87">
+        <v>1251</v>
+      </c>
+      <c r="D87" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" t="s">
+        <v>298</v>
+      </c>
+      <c r="F87" t="s">
+        <v>334</v>
+      </c>
+      <c r="L87" t="s">
+        <v>298</v>
+      </c>
+      <c r="M87" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88">
+        <v>2795</v>
+      </c>
+      <c r="D88" t="s">
+        <v>289</v>
+      </c>
+      <c r="E88" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" t="s">
+        <v>369</v>
+      </c>
+      <c r="L88" t="s">
+        <v>298</v>
+      </c>
+      <c r="M88" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89">
+        <v>1198</v>
+      </c>
+      <c r="D89" t="s">
+        <v>290</v>
+      </c>
+      <c r="E89" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" t="s">
+        <v>345</v>
+      </c>
+      <c r="L89" t="s">
+        <v>298</v>
+      </c>
+      <c r="M89" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90">
+        <v>745</v>
+      </c>
+      <c r="D90" t="s">
+        <v>291</v>
+      </c>
+      <c r="E90" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" t="s">
+        <v>370</v>
+      </c>
+      <c r="L90" t="s">
+        <v>298</v>
+      </c>
+      <c r="M90" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91">
+        <v>865</v>
+      </c>
+      <c r="D91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" t="s">
+        <v>371</v>
+      </c>
+      <c r="L91" t="s">
+        <v>298</v>
+      </c>
+      <c r="M91" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92">
+        <v>1037</v>
+      </c>
+      <c r="D92" t="s">
+        <v>293</v>
+      </c>
+      <c r="E92" t="s">
+        <v>298</v>
+      </c>
+      <c r="F92" t="s">
+        <v>367</v>
+      </c>
+      <c r="L92" t="s">
+        <v>298</v>
+      </c>
+      <c r="M92" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93">
+        <v>1650</v>
+      </c>
+      <c r="D93" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" t="s">
+        <v>298</v>
+      </c>
+      <c r="F93" t="s">
+        <v>372</v>
+      </c>
+      <c r="L93" t="s">
+        <v>298</v>
+      </c>
+      <c r="M93" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94">
+        <v>4126</v>
+      </c>
+      <c r="D94" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" t="s">
+        <v>373</v>
+      </c>
+      <c r="L94" t="s">
+        <v>298</v>
+      </c>
+      <c r="M94" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95">
+        <v>1231</v>
+      </c>
+      <c r="D95" t="s">
         <v>296</v>
       </c>
-      <c r="F81" t="s">
-        <v>356</v>
-      </c>
-      <c r="K81" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82">
-        <v>1728</v>
-      </c>
-      <c r="D82" t="s">
-        <v>281</v>
-      </c>
-      <c r="E82" t="s">
-        <v>296</v>
-      </c>
-      <c r="F82" t="s">
-        <v>357</v>
-      </c>
-      <c r="K82" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83">
-        <v>2076</v>
-      </c>
-      <c r="D83" t="s">
-        <v>282</v>
-      </c>
-      <c r="E83" t="s">
-        <v>296</v>
-      </c>
-      <c r="F83" t="s">
-        <v>358</v>
-      </c>
-      <c r="K83" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84">
-        <v>1550</v>
-      </c>
-      <c r="D84" t="s">
-        <v>283</v>
-      </c>
-      <c r="E84" t="s">
-        <v>296</v>
-      </c>
-      <c r="F84" t="s">
-        <v>359</v>
-      </c>
-      <c r="K84" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85">
-        <v>878</v>
-      </c>
-      <c r="D85" t="s">
-        <v>284</v>
-      </c>
-      <c r="E85" t="s">
-        <v>296</v>
-      </c>
-      <c r="F85" t="s">
-        <v>348</v>
-      </c>
-      <c r="K85" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86">
-        <v>1051</v>
-      </c>
-      <c r="D86" t="s">
-        <v>285</v>
-      </c>
-      <c r="E86" t="s">
-        <v>296</v>
-      </c>
-      <c r="F86" t="s">
-        <v>360</v>
-      </c>
-      <c r="K86" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>191</v>
-      </c>
-      <c r="C87">
-        <v>1078</v>
-      </c>
-      <c r="D87" t="s">
-        <v>286</v>
-      </c>
-      <c r="E87" t="s">
-        <v>296</v>
-      </c>
-      <c r="F87" t="s">
-        <v>331</v>
-      </c>
-      <c r="K87" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88">
-        <v>2263</v>
-      </c>
-      <c r="D88" t="s">
-        <v>287</v>
-      </c>
-      <c r="E88" t="s">
-        <v>296</v>
-      </c>
-      <c r="F88" t="s">
-        <v>361</v>
-      </c>
-      <c r="K88" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89">
-        <v>1011</v>
-      </c>
-      <c r="D89" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" t="s">
-        <v>296</v>
-      </c>
-      <c r="F89" t="s">
-        <v>362</v>
-      </c>
-      <c r="K89" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90">
-        <v>666</v>
-      </c>
-      <c r="D90" t="s">
-        <v>289</v>
-      </c>
-      <c r="E90" t="s">
-        <v>296</v>
-      </c>
-      <c r="F90" t="s">
-        <v>363</v>
-      </c>
-      <c r="K90" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s">
-        <v>195</v>
-      </c>
-      <c r="C91">
-        <v>751</v>
-      </c>
-      <c r="D91" t="s">
-        <v>290</v>
-      </c>
-      <c r="E91" t="s">
-        <v>296</v>
-      </c>
-      <c r="F91" t="s">
-        <v>364</v>
-      </c>
-      <c r="K91" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" t="s">
-        <v>196</v>
-      </c>
-      <c r="C92">
-        <v>932</v>
-      </c>
-      <c r="D92" t="s">
-        <v>291</v>
-      </c>
-      <c r="E92" t="s">
-        <v>296</v>
-      </c>
-      <c r="F92" t="s">
-        <v>365</v>
-      </c>
-      <c r="K92" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93">
-        <v>1464</v>
-      </c>
-      <c r="D93" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" t="s">
-        <v>296</v>
-      </c>
-      <c r="F93" t="s">
-        <v>366</v>
-      </c>
-      <c r="K93" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94">
-        <v>3594</v>
-      </c>
-      <c r="D94" t="s">
-        <v>293</v>
-      </c>
-      <c r="E94" t="s">
-        <v>296</v>
-      </c>
-      <c r="F94" t="s">
-        <v>367</v>
-      </c>
-      <c r="K94" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95">
-        <v>1044</v>
-      </c>
-      <c r="D95" t="s">
-        <v>294</v>
-      </c>
       <c r="E95" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F95" t="s">
-        <v>368</v>
-      </c>
-      <c r="K95" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>374</v>
+      </c>
+      <c r="L95" t="s">
+        <v>298</v>
+      </c>
+      <c r="M95" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C96">
-        <v>1137</v>
+        <v>1364</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F96" t="s">
-        <v>369</v>
-      </c>
-      <c r="K96" t="s">
-        <v>535</v>
+        <v>375</v>
+      </c>
+      <c r="L96" t="s">
+        <v>298</v>
+      </c>
+      <c r="M96" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/procesadosCanal/teddy.xlsx
+++ b/data/procesados/procesadosCanal/teddy.xlsx
@@ -184,7 +184,7 @@
     <t>teddy-portamamadera</t>
   </si>
   <si>
-    <t>cambiador-plastico</t>
+    <t>teddy-cambiador-plastico</t>
   </si>
   <si>
     <t>cambiador-plastico-de-cartera</t>
@@ -469,7 +469,7 @@
     <t>Teddy - Portamamadera</t>
   </si>
   <si>
-    <t>Cambiador plastico</t>
+    <t>Teddy - Cambiador plastico</t>
   </si>
   <si>
     <t>CAMBIADOR PLASTICO DE CARTERA</t>
@@ -1573,10 +1573,11 @@
 </t>
   </si>
   <si>
-    <t>Cambiador totalmente impermeable.&lt;br /&gt;
-Medidas 40x70 cms (abierto) y 24x27 cms (cerrado).&lt;br /&gt;
-Fácil limpieza.&lt;br /&gt;
-Materiales: tela plástica, relleno de guata.</t>
+    <t xml:space="preserve">&lt;p&gt;Cambiador totalmente impermeable.&lt;br /&gt;_x000D_
+Medidas 40x70 cms (abierto) y 24x27 cms (cerrado).&lt;br /&gt;_x000D_
+F&amp;aacute;cil limpieza.&lt;br /&gt;_x000D_
+Materiales: tela pl&amp;aacute;stica, relleno de guata.&lt;/p&gt;_x000D_
+</t>
   </si>
   <si>
     <t>Protege al bebé del frío y la lluvia. Medida universal.&lt;br /&gt;
